--- a/uploads/tarifas.xlsx
+++ b/uploads/tarifas.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$546</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1420,9 +1423,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1482,9 +1489,13 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1761,10 +1772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>308</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>308</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>308</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>308</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>308</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>308</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>308</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>308</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>308</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>308</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>307</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>307</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>307</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -3136,7 +3148,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>307</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>307</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -3223,7 +3235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>307</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>307</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -3426,7 +3438,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>307</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>307</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>307</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>307</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>307</v>
       </c>
@@ -3629,7 +3641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>307</v>
       </c>
@@ -3658,7 +3670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>307</v>
       </c>
@@ -3687,7 +3699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>307</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>307</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>307</v>
       </c>
@@ -3832,7 +3844,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>307</v>
       </c>
@@ -3890,7 +3902,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>307</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>306</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>306</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>306</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>306</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>306</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>306</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>306</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>306</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>306</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>306</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>306</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>306</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>306</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>306</v>
       </c>
@@ -4441,7 +4453,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>306</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>306</v>
       </c>
@@ -4499,7 +4511,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>306</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>306</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>306</v>
       </c>
@@ -4586,7 +4598,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>306</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>306</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>306</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>306</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -4789,7 +4801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>306</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>306</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>306</v>
       </c>
@@ -4876,7 +4888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>306</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>306</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>306</v>
       </c>
@@ -5021,7 +5033,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>306</v>
       </c>
@@ -5050,7 +5062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>305</v>
       </c>
@@ -5079,7 +5091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>341</v>
       </c>
@@ -5108,7 +5120,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>342</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>343</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -5224,7 +5236,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>346</v>
       </c>
@@ -5253,7 +5265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>348</v>
       </c>
@@ -5311,7 +5323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>349</v>
       </c>
@@ -5340,7 +5352,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>350</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>351</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>352</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>353</v>
       </c>
@@ -5456,7 +5468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>354</v>
       </c>
@@ -5485,7 +5497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>355</v>
       </c>
@@ -5514,7 +5526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -5572,7 +5584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>358</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>359</v>
       </c>
@@ -5630,7 +5642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>360</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>361</v>
       </c>
@@ -5688,7 +5700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -5717,7 +5729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>304</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>304</v>
       </c>
@@ -5775,7 +5787,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>304</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>304</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>304</v>
       </c>
@@ -5862,7 +5874,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>304</v>
       </c>
@@ -5891,7 +5903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>304</v>
       </c>
@@ -5920,7 +5932,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>304</v>
       </c>
@@ -5978,7 +5990,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>304</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -6094,7 +6106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>304</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>304</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -6181,7 +6193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -6210,7 +6222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -6239,7 +6251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>304</v>
       </c>
@@ -6268,7 +6280,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>304</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>304</v>
       </c>
@@ -6326,7 +6338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>303</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>303</v>
       </c>
@@ -6382,7 +6394,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>303</v>
       </c>
@@ -6411,7 +6423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>303</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>303</v>
       </c>
@@ -6469,7 +6481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>303</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>303</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>303</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>303</v>
       </c>
@@ -6585,7 +6597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>303</v>
       </c>
@@ -6614,7 +6626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>303</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>303</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>303</v>
       </c>
@@ -6701,7 +6713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>303</v>
       </c>
@@ -6730,7 +6742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>303</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>303</v>
       </c>
@@ -6788,7 +6800,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>303</v>
       </c>
@@ -6817,7 +6829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>303</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>303</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>303</v>
       </c>
@@ -6904,7 +6916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>303</v>
       </c>
@@ -6933,7 +6945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -6962,7 +6974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>303</v>
       </c>
@@ -6991,7 +7003,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>303</v>
       </c>
@@ -7020,7 +7032,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>303</v>
       </c>
@@ -7049,7 +7061,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>303</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>303</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>303</v>
       </c>
@@ -7136,7 +7148,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>302</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>302</v>
       </c>
@@ -7192,7 +7204,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>302</v>
       </c>
@@ -7221,7 +7233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>302</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>302</v>
       </c>
@@ -7279,7 +7291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>302</v>
       </c>
@@ -7308,7 +7320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>302</v>
       </c>
@@ -7337,7 +7349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>302</v>
       </c>
@@ -7366,7 +7378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>302</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>301</v>
       </c>
@@ -7424,7 +7436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>301</v>
       </c>
@@ -7451,7 +7463,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>301</v>
       </c>
@@ -7480,7 +7492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>301</v>
       </c>
@@ -7509,7 +7521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>301</v>
       </c>
@@ -7538,7 +7550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>301</v>
       </c>
@@ -7567,7 +7579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>301</v>
       </c>
@@ -7596,7 +7608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>301</v>
       </c>
@@ -7625,7 +7637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>301</v>
       </c>
@@ -7654,7 +7666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>301</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>301</v>
       </c>
@@ -7712,7 +7724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>301</v>
       </c>
@@ -7741,7 +7753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>301</v>
       </c>
@@ -7770,7 +7782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>301</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>301</v>
       </c>
@@ -7828,7 +7840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>301</v>
       </c>
@@ -7857,7 +7869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -7886,7 +7898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>301</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>301</v>
       </c>
@@ -7944,7 +7956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>301</v>
       </c>
@@ -7973,7 +7985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>301</v>
       </c>
@@ -8002,7 +8014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>301</v>
       </c>
@@ -8031,7 +8043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>301</v>
       </c>
@@ -8060,7 +8072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>301</v>
       </c>
@@ -8089,7 +8101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>301</v>
       </c>
@@ -8118,7 +8130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -8147,7 +8159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>301</v>
       </c>
@@ -8176,7 +8188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -8205,7 +8217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>301</v>
       </c>
@@ -8234,7 +8246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>301</v>
       </c>
@@ -8263,7 +8275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>301</v>
       </c>
@@ -8292,7 +8304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>301</v>
       </c>
@@ -8321,7 +8333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>301</v>
       </c>
@@ -8350,7 +8362,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>301</v>
       </c>
@@ -8379,7 +8391,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>301</v>
       </c>
@@ -8408,7 +8420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>301</v>
       </c>
@@ -8437,7 +8449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>301</v>
       </c>
@@ -8466,7 +8478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>301</v>
       </c>
@@ -8495,7 +8507,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -8524,7 +8536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>300</v>
       </c>
@@ -8551,7 +8563,7 @@
       </c>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -8580,7 +8592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>300</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>300</v>
       </c>
@@ -8638,7 +8650,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>300</v>
       </c>
@@ -8667,7 +8679,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -8696,7 +8708,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>300</v>
       </c>
@@ -8725,7 +8737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>300</v>
       </c>
@@ -8754,7 +8766,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>300</v>
       </c>
@@ -8783,7 +8795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>300</v>
       </c>
@@ -8812,7 +8824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>300</v>
       </c>
@@ -8841,7 +8853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -8870,7 +8882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>300</v>
       </c>
@@ -8899,7 +8911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -8928,7 +8940,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>300</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>300</v>
       </c>
@@ -8986,7 +8998,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>300</v>
       </c>
@@ -9015,7 +9027,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>300</v>
       </c>
@@ -9044,7 +9056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -9073,7 +9085,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -9102,7 +9114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>300</v>
       </c>
@@ -9131,7 +9143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -9160,7 +9172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>300</v>
       </c>
@@ -9189,7 +9201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>300</v>
       </c>
@@ -9218,7 +9230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>300</v>
       </c>
@@ -9247,7 +9259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -9276,7 +9288,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>300</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>300</v>
       </c>
@@ -9334,7 +9346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>300</v>
       </c>
@@ -9363,7 +9375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>300</v>
       </c>
@@ -9392,7 +9404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>300</v>
       </c>
@@ -9421,7 +9433,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>300</v>
       </c>
@@ -9450,7 +9462,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>300</v>
       </c>
@@ -9479,7 +9491,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>300</v>
       </c>
@@ -9508,7 +9520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>299</v>
       </c>
@@ -9537,7 +9549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>299</v>
       </c>
@@ -9566,7 +9578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -9595,7 +9607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>299</v>
       </c>
@@ -9624,7 +9636,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>299</v>
       </c>
@@ -9653,7 +9665,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>299</v>
       </c>
@@ -9682,7 +9694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -9711,7 +9723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>299</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -9769,7 +9781,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>299</v>
       </c>
@@ -9798,7 +9810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -9827,7 +9839,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>299</v>
       </c>
@@ -9856,7 +9868,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>299</v>
       </c>
@@ -9885,7 +9897,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>298</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>298</v>
       </c>
@@ -9943,7 +9955,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -9972,7 +9984,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -10001,7 +10013,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>298</v>
       </c>
@@ -10030,7 +10042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -10059,7 +10071,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>298</v>
       </c>
@@ -10088,7 +10100,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -10117,7 +10129,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>298</v>
       </c>
@@ -10146,7 +10158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>298</v>
       </c>
@@ -10175,7 +10187,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -10204,7 +10216,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10233,7 +10245,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -10262,7 +10274,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>298</v>
       </c>
@@ -10291,7 +10303,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -10320,7 +10332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -10349,7 +10361,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -10378,7 +10390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -10407,7 +10419,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -10436,7 +10448,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -10465,7 +10477,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>298</v>
       </c>
@@ -10494,7 +10506,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>298</v>
       </c>
@@ -10523,7 +10535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>298</v>
       </c>
@@ -10552,7 +10564,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>298</v>
       </c>
@@ -10581,7 +10593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>297</v>
       </c>
@@ -10610,7 +10622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>297</v>
       </c>
@@ -10639,7 +10651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>297</v>
       </c>
@@ -10666,7 +10678,7 @@
       </c>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>297</v>
       </c>
@@ -10695,7 +10707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>297</v>
       </c>
@@ -10724,7 +10736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>297</v>
       </c>
@@ -10753,7 +10765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -10782,7 +10794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>297</v>
       </c>
@@ -10811,7 +10823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>297</v>
       </c>
@@ -10840,7 +10852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>297</v>
       </c>
@@ -10869,7 +10881,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>297</v>
       </c>
@@ -10898,7 +10910,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>297</v>
       </c>
@@ -10927,7 +10939,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>297</v>
       </c>
@@ -10956,7 +10968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>297</v>
       </c>
@@ -10985,7 +10997,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -11014,7 +11026,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>297</v>
       </c>
@@ -11041,7 +11053,7 @@
       </c>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>297</v>
       </c>
@@ -11070,7 +11082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>297</v>
       </c>
@@ -11099,7 +11111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>297</v>
       </c>
@@ -11128,7 +11140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -11157,7 +11169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>297</v>
       </c>
@@ -11186,7 +11198,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>297</v>
       </c>
@@ -11215,7 +11227,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>297</v>
       </c>
@@ -11244,7 +11256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>297</v>
       </c>
@@ -11273,7 +11285,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>297</v>
       </c>
@@ -11302,7 +11314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>297</v>
       </c>
@@ -11331,7 +11343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>297</v>
       </c>
@@ -11360,7 +11372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>297</v>
       </c>
@@ -11389,7 +11401,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>297</v>
       </c>
@@ -11418,7 +11430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>297</v>
       </c>
@@ -11447,7 +11459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>297</v>
       </c>
@@ -11476,7 +11488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>297</v>
       </c>
@@ -11505,7 +11517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>297</v>
       </c>
@@ -11534,7 +11546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>297</v>
       </c>
@@ -11563,7 +11575,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>297</v>
       </c>
@@ -11592,7 +11604,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>297</v>
       </c>
@@ -11621,7 +11633,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>297</v>
       </c>
@@ -11650,7 +11662,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>297</v>
       </c>
@@ -11679,7 +11691,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>297</v>
       </c>
@@ -11708,7 +11720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>297</v>
       </c>
@@ -11737,7 +11749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>297</v>
       </c>
@@ -11766,7 +11778,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>297</v>
       </c>
@@ -11795,7 +11807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>297</v>
       </c>
@@ -11824,7 +11836,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>297</v>
       </c>
@@ -11853,7 +11865,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>297</v>
       </c>
@@ -11882,7 +11894,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>297</v>
       </c>
@@ -11911,7 +11923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>297</v>
       </c>
@@ -11940,7 +11952,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>297</v>
       </c>
@@ -11969,7 +11981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>296</v>
       </c>
@@ -11998,7 +12010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>296</v>
       </c>
@@ -12027,7 +12039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>296</v>
       </c>
@@ -12054,7 +12066,7 @@
       </c>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>296</v>
       </c>
@@ -12083,7 +12095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>296</v>
       </c>
@@ -12112,7 +12124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>296</v>
       </c>
@@ -12141,7 +12153,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>296</v>
       </c>
@@ -12170,7 +12182,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>296</v>
       </c>
@@ -12199,7 +12211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>296</v>
       </c>
@@ -12228,7 +12240,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>296</v>
       </c>
@@ -12257,7 +12269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>296</v>
       </c>
@@ -12286,7 +12298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>296</v>
       </c>
@@ -12315,7 +12327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>296</v>
       </c>
@@ -12344,7 +12356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>296</v>
       </c>
@@ -12373,7 +12385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>296</v>
       </c>
@@ -12402,7 +12414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>296</v>
       </c>
@@ -12429,7 +12441,7 @@
       </c>
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>296</v>
       </c>
@@ -12458,7 +12470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>296</v>
       </c>
@@ -12487,7 +12499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>296</v>
       </c>
@@ -12516,7 +12528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>296</v>
       </c>
@@ -12545,7 +12557,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>296</v>
       </c>
@@ -12574,7 +12586,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>296</v>
       </c>
@@ -12603,7 +12615,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>296</v>
       </c>
@@ -12632,7 +12644,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>296</v>
       </c>
@@ -12661,7 +12673,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>296</v>
       </c>
@@ -12690,7 +12702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>296</v>
       </c>
@@ -12719,7 +12731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>296</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>296</v>
       </c>
@@ -12777,7 +12789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>296</v>
       </c>
@@ -12806,7 +12818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>296</v>
       </c>
@@ -12835,7 +12847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>296</v>
       </c>
@@ -12864,7 +12876,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>296</v>
       </c>
@@ -12893,7 +12905,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>296</v>
       </c>
@@ -12922,7 +12934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>296</v>
       </c>
@@ -12951,7 +12963,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>296</v>
       </c>
@@ -12980,7 +12992,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>296</v>
       </c>
@@ -13009,7 +13021,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>296</v>
       </c>
@@ -13038,7 +13050,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>296</v>
       </c>
@@ -13067,7 +13079,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>296</v>
       </c>
@@ -13096,7 +13108,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>296</v>
       </c>
@@ -13125,7 +13137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>296</v>
       </c>
@@ -13154,7 +13166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>296</v>
       </c>
@@ -13183,7 +13195,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>296</v>
       </c>
@@ -13212,7 +13224,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>296</v>
       </c>
@@ -13241,7 +13253,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>296</v>
       </c>
@@ -13270,7 +13282,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>296</v>
       </c>
@@ -13299,7 +13311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>296</v>
       </c>
@@ -13328,7 +13340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>295</v>
       </c>
@@ -13357,7 +13369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>295</v>
       </c>
@@ -13386,7 +13398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>295</v>
       </c>
@@ -13413,7 +13425,7 @@
       </c>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>295</v>
       </c>
@@ -13442,7 +13454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>295</v>
       </c>
@@ -13471,7 +13483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>295</v>
       </c>
@@ -13500,7 +13512,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>295</v>
       </c>
@@ -13529,7 +13541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>295</v>
       </c>
@@ -13558,7 +13570,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>295</v>
       </c>
@@ -13587,7 +13599,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>295</v>
       </c>
@@ -13616,7 +13628,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>295</v>
       </c>
@@ -13645,7 +13657,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>295</v>
       </c>
@@ -13674,7 +13686,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>295</v>
       </c>
@@ -13701,7 +13713,7 @@
       </c>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>295</v>
       </c>
@@ -13730,7 +13742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>295</v>
       </c>
@@ -13759,7 +13771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>295</v>
       </c>
@@ -13788,7 +13800,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>295</v>
       </c>
@@ -13817,7 +13829,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>295</v>
       </c>
@@ -13846,7 +13858,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>295</v>
       </c>
@@ -13875,7 +13887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>295</v>
       </c>
@@ -13904,7 +13916,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>295</v>
       </c>
@@ -13933,7 +13945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>295</v>
       </c>
@@ -13962,7 +13974,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>295</v>
       </c>
@@ -13991,7 +14003,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>295</v>
       </c>
@@ -14020,7 +14032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>295</v>
       </c>
@@ -14049,7 +14061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>295</v>
       </c>
@@ -14078,7 +14090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>295</v>
       </c>
@@ -14107,7 +14119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>295</v>
       </c>
@@ -14136,7 +14148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>295</v>
       </c>
@@ -14165,7 +14177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>295</v>
       </c>
@@ -14194,7 +14206,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>295</v>
       </c>
@@ -14223,7 +14235,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>295</v>
       </c>
@@ -14252,7 +14264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>294</v>
       </c>
@@ -14281,7 +14293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>294</v>
       </c>
@@ -14310,7 +14322,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>294</v>
       </c>
@@ -14337,7 +14349,7 @@
       </c>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>294</v>
       </c>
@@ -14366,7 +14378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>294</v>
       </c>
@@ -14395,7 +14407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>294</v>
       </c>
@@ -14424,7 +14436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>294</v>
       </c>
@@ -14453,7 +14465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>294</v>
       </c>
@@ -14482,7 +14494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>294</v>
       </c>
@@ -14511,7 +14523,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>294</v>
       </c>
@@ -14540,7 +14552,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>294</v>
       </c>
@@ -14569,7 +14581,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>294</v>
       </c>
@@ -14598,7 +14610,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>294</v>
       </c>
@@ -14625,7 +14637,7 @@
       </c>
       <c r="I444" s="3"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>294</v>
       </c>
@@ -14654,7 +14666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>294</v>
       </c>
@@ -14683,7 +14695,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>294</v>
       </c>
@@ -14712,7 +14724,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>294</v>
       </c>
@@ -14741,7 +14753,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>294</v>
       </c>
@@ -14770,7 +14782,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>294</v>
       </c>
@@ -14799,7 +14811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>294</v>
       </c>
@@ -14828,7 +14840,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>294</v>
       </c>
@@ -14857,7 +14869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>294</v>
       </c>
@@ -14886,7 +14898,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>294</v>
       </c>
@@ -14915,7 +14927,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>294</v>
       </c>
@@ -14944,7 +14956,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>294</v>
       </c>
@@ -14973,7 +14985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>294</v>
       </c>
@@ -15002,7 +15014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>294</v>
       </c>
@@ -15031,7 +15043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>294</v>
       </c>
@@ -15060,7 +15072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>294</v>
       </c>
@@ -15089,7 +15101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>294</v>
       </c>
@@ -15118,7 +15130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>294</v>
       </c>
@@ -15147,7 +15159,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>294</v>
       </c>
@@ -15176,7 +15188,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>294</v>
       </c>
@@ -15205,7 +15217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>293</v>
       </c>
@@ -15234,7 +15246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>373</v>
       </c>
@@ -15263,7 +15275,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>374</v>
       </c>
@@ -15292,7 +15304,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>375</v>
       </c>
@@ -15321,7 +15333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>376</v>
       </c>
@@ -15350,7 +15362,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>377</v>
       </c>
@@ -15379,7 +15391,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>378</v>
       </c>
@@ -15408,7 +15420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>379</v>
       </c>
@@ -15437,7 +15449,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>380</v>
       </c>
@@ -15466,7 +15478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>381</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>382</v>
       </c>
@@ -15524,7 +15536,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>383</v>
       </c>
@@ -15553,7 +15565,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>384</v>
       </c>
@@ -15582,7 +15594,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>385</v>
       </c>
@@ -15611,7 +15623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>386</v>
       </c>
@@ -15640,7 +15652,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>387</v>
       </c>
@@ -15669,7 +15681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>388</v>
       </c>
@@ -15698,7 +15710,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>389</v>
       </c>
@@ -15727,7 +15739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>390</v>
       </c>
@@ -15756,7 +15768,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>391</v>
       </c>
@@ -15785,7 +15797,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>392</v>
       </c>
@@ -15814,7 +15826,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>393</v>
       </c>
@@ -15843,7 +15855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>394</v>
       </c>
@@ -15872,7 +15884,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>395</v>
       </c>
@@ -15901,7 +15913,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>396</v>
       </c>
@@ -15930,7 +15942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>397</v>
       </c>
@@ -15959,7 +15971,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>398</v>
       </c>
@@ -15988,7 +16000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>399</v>
       </c>
@@ -16017,7 +16029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>400</v>
       </c>
@@ -16046,7 +16058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>401</v>
       </c>
@@ -16075,7 +16087,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>402</v>
       </c>
@@ -16104,7 +16116,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>403</v>
       </c>
@@ -16133,7 +16145,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>404</v>
       </c>
@@ -16162,7 +16174,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>405</v>
       </c>
@@ -16191,7 +16203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>406</v>
       </c>
@@ -16220,7 +16232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>292</v>
       </c>
@@ -16249,7 +16261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>292</v>
       </c>
@@ -16278,7 +16290,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>292</v>
       </c>
@@ -16307,7 +16319,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>292</v>
       </c>
@@ -16336,7 +16348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>292</v>
       </c>
@@ -16365,7 +16377,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>292</v>
       </c>
@@ -16394,7 +16406,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>292</v>
       </c>
@@ -16423,7 +16435,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>292</v>
       </c>
@@ -16452,7 +16464,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>292</v>
       </c>
@@ -16481,7 +16493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>292</v>
       </c>
@@ -16510,7 +16522,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>292</v>
       </c>
@@ -16537,7 +16549,7 @@
       </c>
       <c r="I510" s="13"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>292</v>
       </c>
@@ -16566,7 +16578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>292</v>
       </c>
@@ -16595,7 +16607,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>292</v>
       </c>
@@ -16624,7 +16636,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>292</v>
       </c>
@@ -16653,7 +16665,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>292</v>
       </c>
@@ -16682,7 +16694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>292</v>
       </c>
@@ -16711,7 +16723,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>292</v>
       </c>
@@ -16740,7 +16752,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>292</v>
       </c>
@@ -16769,7 +16781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>292</v>
       </c>
@@ -16798,7 +16810,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>292</v>
       </c>
@@ -16827,7 +16839,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>292</v>
       </c>
@@ -16856,7 +16868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>292</v>
       </c>
@@ -16885,7 +16897,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>292</v>
       </c>
@@ -16914,7 +16926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>292</v>
       </c>
@@ -16943,7 +16955,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>292</v>
       </c>
@@ -16972,7 +16984,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>292</v>
       </c>
@@ -17001,7 +17013,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>292</v>
       </c>
@@ -17030,7 +17042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>292</v>
       </c>
@@ -17059,7 +17071,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>292</v>
       </c>
@@ -17088,7 +17100,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>292</v>
       </c>
@@ -17117,7 +17129,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>292</v>
       </c>
@@ -17146,7 +17158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>292</v>
       </c>
@@ -17175,7 +17187,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>292</v>
       </c>
@@ -17204,7 +17216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>292</v>
       </c>
@@ -17233,7 +17245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>291</v>
       </c>
@@ -17262,7 +17274,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>291</v>
       </c>
@@ -17291,7 +17303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>291</v>
       </c>
@@ -17320,7 +17332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>291</v>
       </c>
@@ -17349,7 +17361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>291</v>
       </c>
@@ -17378,7 +17390,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>291</v>
       </c>
@@ -17407,7 +17419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>291</v>
       </c>
@@ -17436,7 +17448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>291</v>
       </c>
@@ -17465,7 +17477,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>291</v>
       </c>
@@ -17494,7 +17506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>291</v>
       </c>
@@ -17523,7 +17535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>291</v>
       </c>
@@ -17552,7 +17564,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>291</v>
       </c>
@@ -17582,6 +17594,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I546">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
